--- a/Project Outputs for CMTestBoard/CMTestBoard.xlsx
+++ b/Project Outputs for CMTestBoard/CMTestBoard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Projects\CMTestBoard\Project Outputs for CMTestBoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A56A882-E908-4809-8444-DAAF96CF135B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6945D7-C938-4F0B-A08B-955EAAEFF95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="19032" windowHeight="11712" xr2:uid="{AFB43C98-33A4-4818-BD28-DE512AC3F4FE}"/>
+    <workbookView xWindow="1080" yWindow="120" windowWidth="19032" windowHeight="11820" xr2:uid="{6AF77CC8-343A-4C5E-8BAA-CF927234DF98}"/>
   </bookViews>
   <sheets>
     <sheet name="CMTestBoard" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="189">
   <si>
     <t>Comment</t>
   </si>
@@ -285,37 +285,136 @@
     <t>CMP-1502-00176-1</t>
   </si>
   <si>
+    <t>68710814522</t>
+  </si>
+  <si>
+    <t>SMT ZIF Connectors WR-FPC, Horizontal, Bottom Contact, pitch 0.5 mm, 8 pins</t>
+  </si>
+  <si>
+    <t>JTAG</t>
+  </si>
+  <si>
+    <t>CMP-1502-01528-1</t>
+  </si>
+  <si>
+    <t>640456-6</t>
+  </si>
+  <si>
+    <t>Male Header, Pitch 2.54 mm, 1 x 6 Position, Height 10.03 mm, Tail Length 3.56 mm, -55 to 105 degC, Bulk</t>
+  </si>
+  <si>
+    <t>P4, SPI</t>
+  </si>
+  <si>
+    <t>TECO-640456-6_V</t>
+  </si>
+  <si>
+    <t>CMP-2000-05661-1</t>
+  </si>
+  <si>
+    <t>DMG1012T-7</t>
+  </si>
+  <si>
+    <t>N-Channel Enhancement Mode MOSFET, 20 V, 630 mA, -55 to 150 degC, 3-Pin SOT23, RoHS, Tape and Reel</t>
+  </si>
+  <si>
+    <t>Q1, Q2, Q3, Q4, Q5</t>
+  </si>
+  <si>
+    <t>DIOD-SOT523-3_V</t>
+  </si>
+  <si>
+    <t>CMP-2000-07450-1</t>
+  </si>
+  <si>
+    <t>0402WGF1003TCE</t>
+  </si>
+  <si>
+    <t>100k 0402</t>
+  </si>
+  <si>
+    <t>R1, R2, R3, R4, R12</t>
+  </si>
+  <si>
+    <t>Res1</t>
+  </si>
+  <si>
+    <t>0402WGF1801TCE</t>
+  </si>
+  <si>
+    <t>1.8k 0402</t>
+  </si>
+  <si>
+    <t>R5, R6</t>
+  </si>
+  <si>
+    <t>0402WGF750JTCE</t>
+  </si>
+  <si>
+    <t>75R 0402</t>
+  </si>
+  <si>
+    <t>R7, R8, R9, R10, R13, R19</t>
+  </si>
+  <si>
+    <t>RESC1005X40X25ML05T10</t>
+  </si>
+  <si>
+    <t>CMP-2002-07344-1</t>
+  </si>
+  <si>
+    <t>0402WGJ0473TCE</t>
+  </si>
+  <si>
+    <t>47k 0402</t>
+  </si>
+  <si>
+    <t>R11, R14, R15, R18</t>
+  </si>
+  <si>
+    <t>0402-A</t>
+  </si>
+  <si>
+    <t>0402WGF1001TCE</t>
+  </si>
+  <si>
+    <t>1k 0402</t>
+  </si>
+  <si>
+    <t>R16, R17</t>
+  </si>
+  <si>
+    <t>0R</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>SJ2</t>
+  </si>
+  <si>
+    <t>J1-0603</t>
+  </si>
+  <si>
     <t>61232020621</t>
   </si>
   <si>
     <t>Male Box Header WR-BHD, SMT, Vertical, pitch 2.54 mm, 20 pins</t>
   </si>
   <si>
-    <t>J?</t>
+    <t>STLINK</t>
   </si>
   <si>
     <t>CMP-1502-00063-1</t>
   </si>
   <si>
-    <t>68710814522</t>
-  </si>
-  <si>
-    <t>SMT ZIF Connectors WR-FPC, Horizontal, Bottom Contact, pitch 0.5 mm, 8 pins</t>
-  </si>
-  <si>
-    <t>JTAG</t>
-  </si>
-  <si>
-    <t>CMP-1502-01528-1</t>
-  </si>
-  <si>
     <t>95278-101A06LF</t>
   </si>
   <si>
     <t>Male Header, Pitch 2.54 mm, 2 x 3 Position, Height 14.4 mm, RoHS, Tape and Reel</t>
   </si>
   <si>
-    <t>P1</t>
+    <t>STMBOOT</t>
   </si>
   <si>
     <t>AMPM-95278-101A06LF_V</t>
@@ -324,105 +423,6 @@
     <t>CMP-1743-00002-1</t>
   </si>
   <si>
-    <t>640456-6</t>
-  </si>
-  <si>
-    <t>Male Header, Pitch 2.54 mm, 1 x 6 Position, Height 10.03 mm, Tail Length 3.56 mm, -55 to 105 degC, Bulk</t>
-  </si>
-  <si>
-    <t>P2, P4</t>
-  </si>
-  <si>
-    <t>TECO-640456-6_V</t>
-  </si>
-  <si>
-    <t>CMP-2000-05661-1</t>
-  </si>
-  <si>
-    <t>DMG1012T-7</t>
-  </si>
-  <si>
-    <t>N-Channel Enhancement Mode MOSFET, 20 V, 630 mA, -55 to 150 degC, 3-Pin SOT23, RoHS, Tape and Reel</t>
-  </si>
-  <si>
-    <t>Q1, Q2, Q3, Q4, Q5</t>
-  </si>
-  <si>
-    <t>DIOD-SOT523-3_V</t>
-  </si>
-  <si>
-    <t>CMP-2000-07450-1</t>
-  </si>
-  <si>
-    <t>0402WGF1003TCE</t>
-  </si>
-  <si>
-    <t>100k 0402</t>
-  </si>
-  <si>
-    <t>R1, R2, R3, R4, R12</t>
-  </si>
-  <si>
-    <t>Res1</t>
-  </si>
-  <si>
-    <t>0402WGF1801TCE</t>
-  </si>
-  <si>
-    <t>1.8k 0402</t>
-  </si>
-  <si>
-    <t>R5, R6</t>
-  </si>
-  <si>
-    <t>0402WGF1001TCE</t>
-  </si>
-  <si>
-    <t>1k 0402</t>
-  </si>
-  <si>
-    <t>R7, R16, R17</t>
-  </si>
-  <si>
-    <t>0402WGF750JTCE</t>
-  </si>
-  <si>
-    <t>75R 0402</t>
-  </si>
-  <si>
-    <t>R8, R9, R10, R13, R19</t>
-  </si>
-  <si>
-    <t>RESC1005X40X25ML05T10</t>
-  </si>
-  <si>
-    <t>CMP-2002-07344-1</t>
-  </si>
-  <si>
-    <t>0402WGJ0473TCE</t>
-  </si>
-  <si>
-    <t>47k 0402</t>
-  </si>
-  <si>
-    <t>R11, R14, R15, R18</t>
-  </si>
-  <si>
-    <t>0402-A</t>
-  </si>
-  <si>
-    <t>0R</t>
-  </si>
-  <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>SJ2</t>
-  </si>
-  <si>
-    <t>J1-0603</t>
-  </si>
-  <si>
     <t>4-1437565-1</t>
   </si>
   <si>
@@ -444,7 +444,7 @@
     <t>PC TEST POINT MINIATURE YELLOW</t>
   </si>
   <si>
-    <t>TP1, TP2, TP3, TP4, TP5, TP6, TP7, TP8, TP9, TP10</t>
+    <t>TP1, TP2, TP3, TP4, TP5, TP6, TP7, TP8, TP9, TP10, TP14</t>
   </si>
   <si>
     <t>FP-5004-MFG</t>
@@ -595,6 +595,15 @@
   </si>
   <si>
     <t>CMP-18717-000014-1</t>
+  </si>
+  <si>
+    <t>Number of total parts:</t>
+  </si>
+  <si>
+    <t>Minus Headers:</t>
+  </si>
+  <si>
+    <t>Minus Headers,Caps,Res:</t>
   </si>
 </sst>
 </file>
@@ -624,7 +633,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -647,11 +656,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -661,6 +681,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -976,14 +999,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A746CF4-90F5-4A5C-83C9-394C9D37F7AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE19FFC-F37B-4697-AAD0-341BDFE343B2}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1411,7 +1434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>86</v>
       </c>
@@ -1422,56 +1445,56 @@
         <v>88</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F22" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F23" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>99</v>
       </c>
       <c r="F24" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>100</v>
       </c>
@@ -1482,53 +1505,53 @@
         <v>102</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F25" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="F26" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="E27" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F27" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1545,13 +1568,13 @@
         <v>38</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F28" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>115</v>
       </c>
@@ -1565,47 +1588,47 @@
         <v>118</v>
       </c>
       <c r="E29" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F29" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F30" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="F31" s="4">
         <v>1</v>
@@ -1648,7 +1671,7 @@
         <v>137</v>
       </c>
       <c r="F33" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
@@ -1851,10 +1874,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E44" s="5" t="s">
+        <v>186</v>
+      </c>
       <c r="F44">
-        <f>SUM(F2:F43)</f>
-        <v>121</v>
+        <f>SUM(F2:F32)+SUM(F34:F43)-F29</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E45" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F45">
+        <f>F44-(F42+F41+F40+F31+F30+F22+F21+F20+F19+F17)</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E46" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F46">
+        <f>F45-SUM(F2:F11)-SUM(F24:F28)</f>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
